--- a/Reports/(S4)รายงาน - ยอดขายตามสินค้า (accounting)/Prototype-รายงาน-ยอดขายตามสินค้า-Animate.xlsx
+++ b/Reports/(S4)รายงาน - ยอดขายตามสินค้า (accounting)/Prototype-รายงาน-ยอดขายตามสินค้า-Animate.xlsx
@@ -11,26 +11,77 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>1. เพิ่ม ยี่ห้อสินค้า FTPbnName ในรายงาน</t>
-  </si>
-  <si>
-    <t>3. เพิ่ม Condition ยี่ห้อสินค้า FTPtyCode</t>
-  </si>
-  <si>
-    <t>2. เพิ่ม ประเภทสินค้า FTPtyName ในรายงาน</t>
-  </si>
-  <si>
-    <t>Store Name : SP_RPTxDailySaleByPdt1001002</t>
-  </si>
-  <si>
-    <t>Temp Name : TRPTSalDTTmp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+  <si>
+    <t>Temp Name : TRPTSalDTTmp_Animate</t>
+  </si>
+  <si>
+    <t>Store Name : SP_RPTxDailySaleByPdt_Animate</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>1. Branch</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>2. Merchant</t>
+  </si>
+  <si>
+    <t>3. Shop</t>
+  </si>
+  <si>
+    <t>4. Pos</t>
+  </si>
+  <si>
+    <t>5. Product Code</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>6. Product Group</t>
+  </si>
+  <si>
+    <t>7. Product Type</t>
+  </si>
+  <si>
+    <t>8. Product Brand</t>
+  </si>
+  <si>
+    <t>9. Doc Date</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. นำข้อมูลจาก TCNTPdtStkBal มาตั้งตน </t>
+  </si>
+  <si>
+    <t>2. นำข้อมูลการขายที่สาขา Product ตรงกัน มารวมกับ TCNTPdtStkBal</t>
+  </si>
+  <si>
+    <t>3. จำนวน = จำนวนที่ขายตามช่วงวันที่การขาย</t>
+  </si>
+  <si>
+    <t>4. สต๊อกคงเหลือ คือ สต๊อกคงเหลือล่าสุด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. ราคาต่อหน่วย = ราคาต่อหน่วยจาก TCNTPdtPrice4PDT </t>
+  </si>
+  <si>
+    <t>5. ยอดขาย = Net  - (ส่วนลด,ชาจร์รายการ)</t>
+  </si>
+  <si>
+    <t>7. ยอดขายรวม = Net  - (ส่วนชาจลดร์รายการ+ส่วนลดท้ายบิล + ส่วนลดโปรโมชั่น)</t>
   </si>
 </sst>
 </file>
@@ -56,7 +107,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0070C0"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +135,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,20 +167,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>541057</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>170750</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115893</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="รูปภาพ 1"/>
+        <xdr:cNvPr id="4" name="รูปภาพ 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -142,8 +193,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="180975"/>
-          <a:ext cx="14942857" cy="5600000"/>
+          <a:off x="8460441" y="145677"/>
+          <a:ext cx="5180952" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150316</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="รูปภาพ 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="179294"/>
+          <a:ext cx="7714286" cy="3666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -442,38 +531,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B33:B38"/>
+  <dimension ref="B24:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="33" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
